--- a/Data/EC/NIT-9008536749.xlsx
+++ b/Data/EC/NIT-9008536749.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBE771D-36F4-40D4-B760-B28809A9727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA53957F-246E-42D9-9BF7-F66811CA3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D00F053D-D02E-4120-B50D-410CD80F4644}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1C6DB91-5D4A-4ADE-BE22-E80C5786A15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143325496</t>
+  </si>
+  <si>
+    <t>ESLIANY IBETH BARRAGAN GONZALEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>33104486</t>
+  </si>
+  <si>
+    <t>YESENIA PATRICIA SIMANCAS BONFANTE</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>33221274</t>
   </si>
   <si>
@@ -74,64 +116,22 @@
     <t>2101</t>
   </si>
   <si>
-    <t>33104486</t>
-  </si>
-  <si>
-    <t>YESENIA PATRICIA SIMANCAS BONFANTE</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1143325496</t>
-  </si>
-  <si>
-    <t>ESLIANY IBETH BARRAGAN GONZALEZ</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1047438842</t>
   </si>
   <si>
     <t>JOSE RICARDO PERNETT ZARATE</t>
   </si>
   <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526BC20B-F43B-72ED-8BC5-26C7AE95F56C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63A8FBD-6E36-E9B6-1214-8FFEC429B285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7474289C-CD02-479E-969D-01157A2D179A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3717E3B-BAF2-4791-8FFE-E0D53E3AEC48}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7268</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,19 +1088,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1111,19 +1111,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>27578</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>27578</v>
@@ -1180,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
@@ -1203,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>27578</v>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>945000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>945000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>7268</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1327,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>56000</v>
       </c>
       <c r="G27" s="18">
         <v>2000000</v>
@@ -1396,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="24">
-        <v>56000</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="24">
         <v>2000000</v>
